--- a/database/Data Product/Indomaret_Makanan_CemilanBiskuit_15PaginationX50.xlsx
+++ b/database/Data Product/Indomaret_Makanan_CemilanBiskuit_15PaginationX50.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projectThesis\database\Data Product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F7D3B9-ED3A-496A-A700-BBDAE6013B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07373879-8BE9-4D19-AE15-8EED0BF3F008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{F416418F-15C4-4B27-9E8F-B94A22471DCF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F416418F-15C4-4B27-9E8F-B94A22471DCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Normal" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Discounted!$A$1:$M$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Normal!$A$1:$K$1391</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Normal!$A$1:$K$1392</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6970" uniqueCount="4481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7425" uniqueCount="4882">
   <si>
     <t>item href</t>
   </si>
@@ -13482,13 +13482,1216 @@
   </si>
   <si>
     <t>Foxs Candy Oval Heritage Tamarind &amp; Ginger 125g</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/drink-velluto</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20095742/20095742_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Tango Drink Italian Choco 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/Assets/image/send_by_store_blue.png</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-7</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037152/20037152_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Putih 200Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-anak</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20045995/20045995_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Anak Strawberry 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-5</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10004237/10004237_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Cap Badak Larutan Penyegar Leci 320mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10003627/10003627_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Espe Larutan Penyegar Orange 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/espe-larutan-penyegar-cap-badak</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10037437/10037437_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Espe Larutan Penyegar Strawberry 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-ekstrak-buah-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20086205/20086205_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Good Mood Minuman Ekstrak Buah Blackcurrant 450Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-ekstrak-buah</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20075570/20075570_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Good Mood Minuman Ekstrak Buah Lemon &amp; Madu 450Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-ekstrak-buah-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20086204/20086204_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Good Mood Minuman Ekstrak Buah Stroberi 450Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/prima-rasa-fruit-cocktail</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10015550/10015550_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Prima Rasa Fruit Cocktail 220mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-lemon-tea</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20077509/20077509_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Indomaret Minuman Lemon Tea 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10002965/10002965_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Cap Badak Larutan Penyegar Putih 200Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-11</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10003842/10003842_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Cap Badak Larutan Penyegar Jambu 320mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/drink-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10025991/10025991_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Yeo's Drink Grass Jelly 300mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/wong-coco-sari-kelapa-dugan-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20106309/20106309_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Wong Coco Sari Kelapa Dugan Cocopandan Cup 235G</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-coco-bit-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20062818/20062818_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fruitamin Minuman Coco Bit Lychee 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-coco-bit</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20067865/20067865_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fruitamin Minuman Coco Bit Splash Coco 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20114660/20114660_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hi C1000 Health Drink Vitamin Lemon 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-pet</t>
+  </si>
+  <si>
+    <t>Coca-Cola Soft Drink 1500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-18</t>
+  </si>
+  <si>
+    <t>Fanta Soft Drink Strawberry 1500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink</t>
+  </si>
+  <si>
+    <t>Sprite Soft Drink 1500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/jamu-lancar-datang-bulan</t>
+  </si>
+  <si>
+    <t>Sido Muncul Jamu Lancar Datang Bulan Kunyit Asam 150mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/sehat-datang-bulan</t>
+  </si>
+  <si>
+    <t>Kiranti Sehat Datang Bulan 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/big-soft-drink-cola</t>
+  </si>
+  <si>
+    <t>Big Soft Drink Cola 3.1L</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/big-soft-drink-strawberry</t>
+  </si>
+  <si>
+    <t>Big Soft Drink Strawberry 3.1L</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/cooling-mountain-water-extract</t>
+  </si>
+  <si>
+    <t>Coolant Cooling Mountain Water Extract Crysanthemum 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/hi-c1000-health-drink-vitamin-orange</t>
+  </si>
+  <si>
+    <t>Hi C1000 Health Drink Vitamin Orange 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-isotonik-3</t>
+  </si>
+  <si>
+    <t>Pocari Sweat Minuman Isotonik 2000Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-8</t>
+  </si>
+  <si>
+    <t>A&amp;W Soft Drink Sarsaparila 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/isotonic-drink--vitamin-2</t>
+  </si>
+  <si>
+    <t>Activ Water Isotonic Drink + Vitamin Lemon 380mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/isotonic-drink--vitamin-1</t>
+  </si>
+  <si>
+    <t>Activ Water Isotonic Drink + Vitamin Triple Berry 380mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/ching-ku</t>
+  </si>
+  <si>
+    <t>Adem Sari Ching Ku Herbal Tea 325Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-penyejuk-1</t>
+  </si>
+  <si>
+    <t>Adem Sari Ching Ku Lemon 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-penyejuk-2</t>
+  </si>
+  <si>
+    <t>Adem Sari Ching Ku Minuman Penyejuk 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-penyejuk-3</t>
+  </si>
+  <si>
+    <t>Adem Sari Ching Ku Sparkling 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/ching-ku-teh-hijau</t>
+  </si>
+  <si>
+    <t>Adem Sari Ching Ku Teh Hijau Madu Lemon Tea 350mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-cool</t>
+  </si>
+  <si>
+    <t>Alang Sari Minuman Cool Jeruk Nipis 300mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/aminuzer-drink-vitamin-c-1000mg</t>
+  </si>
+  <si>
+    <t>Amunizer Drink Vitamin C-1000Mg 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-53</t>
+  </si>
+  <si>
+    <t>Big Soft Drink Blueberry 325mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-16</t>
+  </si>
+  <si>
+    <t>Big Soft Drink Cola 375mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-00</t>
+  </si>
+  <si>
+    <t>Bintang Radler 0.0% Blackcurrant &amp; Lime 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-radler-00</t>
+  </si>
+  <si>
+    <t>Bintang Soft Drink Radler 0.0% 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-10</t>
+  </si>
+  <si>
+    <t>Bintang Zero Soft Drink 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-9</t>
+  </si>
+  <si>
+    <t>Cap Badak Larutan Penyegar Putih 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/sparkling-water-1</t>
+  </si>
+  <si>
+    <t>Chi Forest Sparkling Water Lychee Fizzy 480mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/sparkling-water</t>
+  </si>
+  <si>
+    <t>Chi Forest Sparkling Water White Peach 480mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-slim-1</t>
+  </si>
+  <si>
+    <t>Coca Cola Soft Drink Slim 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-38</t>
+  </si>
+  <si>
+    <t>Coca-Cola Soft Drink 390Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/coconut-drink-ori</t>
+  </si>
+  <si>
+    <t>Cocomas Coconut Drink Ori 330mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/boba-milk-tea-2</t>
+  </si>
+  <si>
+    <t>Delmonte Boba Milk Tea Matcha 240Ml</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10000688/10000688_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10000690/10000690_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10000689/10000689_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20124206/20124206_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10003389/10003389_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20046841/20046841_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20046842/20046842_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20031344/20031344_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20115982/20115982_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20025359/20025359_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20123500/20123500_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20125913/20125913_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20125914/20125914_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20083775/20083775_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20040276/20040276_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20053540/20053540_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20071642/20071642_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20122090/20122090_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20127835/20127835_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20113135/20113135_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20100141/20100141_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20032785/20032785_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20106266/20106266_thumb.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_07_00_20230613_23_00/20066758/20066758_thumb.jpg</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10033567/10033567_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10008581/10008581_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20124899/20124899_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20124898/20124898_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10030804/10030804_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20065778/20065778_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20122700/20122700_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20117687/20117687_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/boba-milk-tea-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20117682/20117682_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Delmonte Boba Milk Tea Red Velvet 240Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/fanta-soft-drink-orange-15000ml</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20036764/20036764_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fanta Soft Drink Orange 1500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-39</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20065780/20065780_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fanta Soft Drink Strawberry 390Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/floridina-juice-pulp-orange-coco-bit</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20113377/20113377_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Floridina Juice Pulp Coco Bit 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-coco-bit-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20091654/20091654_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fruitamin Minuman Coco Bit Splash Guava 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-coco-bit-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20112659/20112659_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fruitamin Minuman Coco Bit Splash Mango 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-teh-hijau</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20129112/20129112_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Garantea Minuman Teh Hijau Apel 350mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-shandy</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10000107/10000107_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Green Sands Original Lime &amp; Apple 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-35</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20068089/20068089_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Green Sands Soft Drink Lemon &amp; Grape 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energi-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10006263/10006263_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hemaviton Energi Drink 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-c1000--collagen</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20066629/20066629_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hemaviton Health Drink C1000 + Collagen Orange 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-c1000-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20048546/20048546_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hemaviton Health Drink Vitamin C1000 Orange 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-c1000-5</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20103368/20103368_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hemaviton Vitamin C1000 Lemon 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-c1000-4</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20103178/20103178_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hemaviton Vitamin C1000 Less Sugar Orange 330Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/natural-health-drink-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20116490/20116490_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hydro Coco Natural Health Drink 1L</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/natural-health-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20018435/20018435_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hydro Coco Natural Health Drink 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/natural-health-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20057867/20057867_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hydro Coco Natural Health Drink 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/natural-health-drink-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20119876/20119876_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Hydro Coco Natural Health Drink Vita-D 330mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-teh-madu</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20123862/20123862_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Ichi Ocha Minuman Teh Madu Lemon 350mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/indomaret-coconut-water-250ml</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20115548/20115548_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Indomaret Coconut Water 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-isotonik-7</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20069773/20069773_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Isoplus Minuman Isotonik 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-10</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037150/20037150_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Jambu Biji 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-14</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20069199/20069199_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Jeruk Nipis 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-4</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037144/20037144_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Leci 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-8</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037153/20037153_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kaki Tiga Larutan Penyegar Putih 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/juice-sehat-datang-bulan</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20029054/20029054_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kiranti Juice Sehat Datang Bulan Orange 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energy-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10002595/10002595_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kratingdaeng Energy Drink Reguler 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energy-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10003427/10003427_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kratingdaeng Energy Drink Super 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-twist-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20121348/20121348_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Lasegar Twist Jeruk-Lemon 320mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/larutan-penyegar-twist</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20121346/20121346_thumb.jpg</t>
+  </si>
+  <si>
+    <t>Lasegar Twist Lemon 320mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/susu</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20126817/20126817_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Milkido Susu Cokelat 200ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/active-minuman-isotonik</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20094164/20094164_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mizone Active Minuman Isotonik Lychee Lemon 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/mood-up-minuman-isotonik</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20094167/20094167_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mizone Mood Up Minuman Isotonik Cranberry 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-nata-de-coco-14</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20101381/20101381_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mogu-Mogu Minuman Nata De Coco Sirsak 320Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/mr-natta-minuman-nata-de-coco-jelly-blueberry</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20112382/20112382_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mr.Natta Minuman Nata De Coco &amp; Jelly Blueberry 126Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/mr-natta-minuman-nata-de-coco-jelly-leci</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20112383/20112383_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mr.Natta Minuman Nata De Coco &amp; Jelly Leci 126Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energi-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20014608/20014608_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Neo Hormoviton Energi Drink 150Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-choco-tea</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20128233/20128233_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Nu Minuman Choco Tea Hazeltea 330mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/collagen-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20123474/20123474_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Nutriville Collagen Drink Grape 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-bervitamin</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20089821/20089821_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Oronamin C Minuman Bervitamin 120Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/grass-jelly-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20046319/20046319_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Panda Grass Jelly Drink 310Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/grass-jelly-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20120929/20120929_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Panda Grass Jelly Drink Basil Seed 310mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-isotonik-4</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20009722/20009722_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Pocari Sweat Minuman Isotonik 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/pocari-sweat-minuman-isotonik-900ml</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20038777/20038777_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Pocari Sweat Minuman Isotonik 900Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energy-drink-5</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20022431/20022431_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Red Bull Energy Drink 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/energy-drink-8</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20056989/20056989_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Red Bull Gold Energy Drink Can 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/fruit-tea-12</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20082888/20082888_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sosro Fruit Tea Lemon 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/fruit-tea-10</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20079972/20079972_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sosro Fruit Tea Markisa 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/fruit-tea-strawberry</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20087094/20087094_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sosro Fruit Tea Strawberry 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-40</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20065779/20065779_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sprite Soft Drink 390Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-51</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20097484/20097484_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sprite Soft Drink Waterlymon 425Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/stee-minuman-teh-200ml</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20112394/20112394_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>S-Tee Minuman Teh Melati 200Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/drink-3</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20126816/20126816_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Tango Drink Dreamy Strawberry 250mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/sparkling</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20119547/20119547_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Tebs Sparkling Lemon Lime 300Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20032519/20032519_thumb.jpg</t>
+  </si>
+  <si>
+    <t>You C1000 Health Drink Vitamin Apple 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/10039897/10039897_thumb.jpg</t>
+  </si>
+  <si>
+    <t>You C1000 Health Drink Vitamin Lemon 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin-5</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20115636/20115636_thumb.jpg</t>
+  </si>
+  <si>
+    <t>You C1000 Health Drink Vitamin Mango 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/health-drink-vitamin</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20009737/20009737_thumb.jpg</t>
+  </si>
+  <si>
+    <t>You C1000 Health Drink Vitamin Orange 140Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/isotonic-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20019673/20019673_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>You C1000 Isotonic Drink Lemon Water 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/isotonic-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20019674/20019674_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>You C1000 Isotonic Drink Orange Water 500Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/adem-sari-minuman-penyejuk</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20002504/20002504_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Adem Sari Minuman Penyejuk 5X7g</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-penyejuk-8s</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20129669/20129669_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Adem Sari Minuman Penyejuk 8'S</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-teh-manis</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20129849/20129849_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Bonteh Minuman Teh Manis 330mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-44</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037042/20037042_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Coca-Cola Soft Drink 250Ml Pet</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/coconut-lychee-peach</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20120740/20120740_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Coconut Island Coconut Lychee Peach 240mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/yuzu-passion-fruit-lavender</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20120742/20120742_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Coconut Island Yuzu Passion Fruit Lavender 240mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/boba-milk-tea</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20104971/20104971_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Delmonte Boba Milk Tea Taro 240mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-42</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037043/20037043_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Fanta Soft Drink Strawberry 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-isotonik</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20128918/20128918_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Isoplus Minuman Isotonik Coco 350mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/jamu-pegal-linu</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/10012355/10012355_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Kiranti Jamu Pegal Linu 120mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-bersoda-milkis-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20048624/20048624_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Lotte Minuman Bersoda Milkis 500mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/honeymon-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20123330/20123330_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Madu Nusantara Honeymon Drink 330mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/jelly-with-nata-de-coco</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20128812/20128812_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mogu-Mogu Jelly With Nata De Coco Lychee 150mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/jelly-with-nata-de-coco-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20128811/20128811_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mogu-Mogu Jelly With Nata De Coco Strawberry 150mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-nata-de-coco</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20129120/20129120_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Mogu-Mogu Minuman Nata De Coco Nanas 320mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-sarang-burung</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20088273/20088273_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Panda Minuman Sarang Burung 310mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/minuman-isotonik-2</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20015838/20015838_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Pocari Sweat Minuman Isotonik 350Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/drink-green-tea</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20120415/20120415_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Pokka Drink Green Tea No Sugar 450mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/fruit-drink-1</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20129721/20129721_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Ribena Fruit Drink Blackcurrant 450mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/jamu-beras-kencur</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20124207/20124207_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sido Muncul Jamu Beras Kencur 150mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/soft-drink-43</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037044/20037044_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Sprite Soft Drink 250Ml</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/herbal-drink</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20118379/20118379_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Wang Lao Ji Herbal Drink Chrysanthemum 310mL</t>
+  </si>
+  <si>
+    <t>https://www.klikindomaret.com/product/air-soda</t>
+  </si>
+  <si>
+    <t>https://assets.klikindomaret.com/products/20037976/20037976_thumb.jpg?Version.20.01.1.01</t>
+  </si>
+  <si>
+    <t>Zoda Air Soda 250mL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13498,6 +14701,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -13526,16 +14736,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{9085001F-90D6-4C00-8911-49B25814E07D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -13847,10 +15065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04983E94-4F41-4EE4-A125-D75CC8F12EB5}">
-  <dimension ref="A1:K1390"/>
+  <dimension ref="A1:K1524"/>
   <sheetViews>
-    <sheetView topLeftCell="E1362" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K1390"/>
+    <sheetView tabSelected="1" topLeftCell="F1497" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M1494" sqref="M1494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44856,7 +46074,7 @@
         <v>16200</v>
       </c>
       <c r="K1347" t="str">
-        <f t="shared" ref="K1347:K1391" si="21">CONCATENATE("exec [S_Product_insertProduct] '",E1347,"',",F1347, ",'","-","','",B1347,"'",",'C001', 'MM002'")</f>
+        <f t="shared" ref="K1347:K1410" si="21">CONCATENATE("exec [S_Product_insertProduct] '",E1347,"',",F1347, ",'","-","','",B1347,"'",",'C001', 'MM002'")</f>
         <v>exec [S_Product_insertProduct] 'Home Vermicelli Soun Longkou 500G',16200,'-','https://assets.klikindomaret.com/products/20122045/20122045_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
       </c>
     </row>
@@ -45892,8 +47110,2711 @@
         <v>exec [S_Product_insertProduct] 'Supermi Nutrimi Mie Goreng Steak Ayam 80G',4500,'-','https://assets.klikindomaret.com/products/20112912/20112912_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
       </c>
     </row>
+    <row r="1392" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1392" s="7" t="s">
+        <v>4481</v>
+      </c>
+      <c r="B1392" s="7" t="s">
+        <v>4482</v>
+      </c>
+      <c r="C1392" s="7" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1392" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1392" s="7" t="s">
+        <v>4483</v>
+      </c>
+      <c r="F1392" s="8">
+        <v>5000</v>
+      </c>
+      <c r="K1392" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Tango Drink Italian Choco 250mL',5000,'-','https://assets.klikindomaret.com/products/20095742/20095742_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1393" s="3" t="s">
+        <v>4485</v>
+      </c>
+      <c r="B1393" s="3" t="s">
+        <v>4486</v>
+      </c>
+      <c r="C1393" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1393" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1393" s="3" t="s">
+        <v>4487</v>
+      </c>
+      <c r="F1393" s="4">
+        <v>4300</v>
+      </c>
+      <c r="K1393" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Putih 200Ml',4300,'-','https://assets.klikindomaret.com/products/20037152/20037152_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1394" s="3" t="s">
+        <v>4488</v>
+      </c>
+      <c r="B1394" s="3" t="s">
+        <v>4489</v>
+      </c>
+      <c r="C1394" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1394" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1394" s="3" t="s">
+        <v>4490</v>
+      </c>
+      <c r="F1394" s="4">
+        <v>6600</v>
+      </c>
+      <c r="K1394" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Anak Strawberry 250Ml',6600,'-','https://assets.klikindomaret.com/products/20045995/20045995_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1395" s="3" t="s">
+        <v>4491</v>
+      </c>
+      <c r="B1395" s="3" t="s">
+        <v>4492</v>
+      </c>
+      <c r="C1395" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1395" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1395" s="3" t="s">
+        <v>4493</v>
+      </c>
+      <c r="F1395" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K1395" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Cap Badak Larutan Penyegar Leci 320mL',7500,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10004237/10004237_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1396" s="3" t="s">
+        <v>4494</v>
+      </c>
+      <c r="B1396" s="3" t="s">
+        <v>4495</v>
+      </c>
+      <c r="C1396" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1396" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1396" s="3" t="s">
+        <v>4496</v>
+      </c>
+      <c r="F1396" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K1396" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Espe Larutan Penyegar Orange 320Ml',7500,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10003627/10003627_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1397" s="3" t="s">
+        <v>4497</v>
+      </c>
+      <c r="B1397" s="3" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C1397" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1397" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1397" s="3" t="s">
+        <v>4499</v>
+      </c>
+      <c r="F1397" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K1397" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Espe Larutan Penyegar Strawberry 320Ml',7500,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10037437/10037437_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1398" s="3" t="s">
+        <v>4500</v>
+      </c>
+      <c r="B1398" s="3" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C1398" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1398" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1398" s="3" t="s">
+        <v>4502</v>
+      </c>
+      <c r="F1398" s="4">
+        <v>5800</v>
+      </c>
+      <c r="K1398" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Good Mood Minuman Ekstrak Buah Blackcurrant 450Ml',5800,'-','https://assets.klikindomaret.com/products/20086205/20086205_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1399" s="3" t="s">
+        <v>4503</v>
+      </c>
+      <c r="B1399" s="3" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C1399" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1399" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1399" s="3" t="s">
+        <v>4505</v>
+      </c>
+      <c r="F1399" s="4">
+        <v>5800</v>
+      </c>
+      <c r="K1399" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Good Mood Minuman Ekstrak Buah Lemon &amp; Madu 450Ml',5800,'-','https://assets.klikindomaret.com/products/20075570/20075570_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1400" s="3" t="s">
+        <v>4506</v>
+      </c>
+      <c r="B1400" s="3" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C1400" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1400" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1400" s="3" t="s">
+        <v>4508</v>
+      </c>
+      <c r="F1400" s="4">
+        <v>5800</v>
+      </c>
+      <c r="K1400" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Good Mood Minuman Ekstrak Buah Stroberi 450Ml',5800,'-','https://assets.klikindomaret.com/products/20086204/20086204_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1401" s="3" t="s">
+        <v>4509</v>
+      </c>
+      <c r="B1401" s="3" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C1401" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1401" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1401" s="3" t="s">
+        <v>4511</v>
+      </c>
+      <c r="F1401" s="4">
+        <v>8300</v>
+      </c>
+      <c r="K1401" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Prima Rasa Fruit Cocktail 220mL',8300,'-','https://assets.klikindomaret.com/products/10015550/10015550_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1402" s="3" t="s">
+        <v>4512</v>
+      </c>
+      <c r="B1402" s="3" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C1402" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1402" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1402" s="3" t="s">
+        <v>4514</v>
+      </c>
+      <c r="F1402" s="4">
+        <v>4300</v>
+      </c>
+      <c r="K1402" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Indomaret Minuman Lemon Tea 330Ml',4300,'-','https://assets.klikindomaret.com/products/20077509/20077509_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1403" s="3" t="s">
+        <v>4515</v>
+      </c>
+      <c r="B1403" s="3" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C1403" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1403" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1403" s="3" t="s">
+        <v>4517</v>
+      </c>
+      <c r="F1403" s="4">
+        <v>4000</v>
+      </c>
+      <c r="K1403" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Cap Badak Larutan Penyegar Putih 200Ml',4000,'-','https://assets.klikindomaret.com/products/10002965/10002965_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1404" s="3" t="s">
+        <v>4518</v>
+      </c>
+      <c r="B1404" s="3" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C1404" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1404" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1404" s="3" t="s">
+        <v>4520</v>
+      </c>
+      <c r="F1404" s="4">
+        <v>7500</v>
+      </c>
+      <c r="K1404" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Cap Badak Larutan Penyegar Jambu 320mL',7500,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/10003842/10003842_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1405" s="3" t="s">
+        <v>4521</v>
+      </c>
+      <c r="B1405" s="3" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1405" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1405" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1405" s="3" t="s">
+        <v>4523</v>
+      </c>
+      <c r="F1405" s="4">
+        <v>6700</v>
+      </c>
+      <c r="K1405" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Yeo's Drink Grass Jelly 300mL',6700,'-','https://assets.klikindomaret.com/products/10025991/10025991_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1406" s="3" t="s">
+        <v>4524</v>
+      </c>
+      <c r="B1406" s="3" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1406" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1406" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1406" s="3" t="s">
+        <v>4526</v>
+      </c>
+      <c r="F1406" s="4">
+        <v>5500</v>
+      </c>
+      <c r="K1406" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Wong Coco Sari Kelapa Dugan Cocopandan Cup 235G',5500,'-','https://assets.klikindomaret.com/products/20106309/20106309_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1407" s="3" t="s">
+        <v>4527</v>
+      </c>
+      <c r="B1407" s="3" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1407" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1407" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1407" s="3" t="s">
+        <v>4529</v>
+      </c>
+      <c r="F1407" s="4">
+        <v>7000</v>
+      </c>
+      <c r="K1407" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Fruitamin Minuman Coco Bit Lychee 350Ml',7000,'-','https://assets.klikindomaret.com/products/20062818/20062818_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1408" s="3" t="s">
+        <v>4530</v>
+      </c>
+      <c r="B1408" s="3" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C1408" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1408" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1408" s="3" t="s">
+        <v>4532</v>
+      </c>
+      <c r="F1408" s="4">
+        <v>7000</v>
+      </c>
+      <c r="K1408" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Fruitamin Minuman Coco Bit Splash Coco 350Ml',7000,'-','https://assets.klikindomaret.com/products/20067865/20067865_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1409" s="3" t="s">
+        <v>4533</v>
+      </c>
+      <c r="B1409" s="3" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C1409" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1409" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1409" s="3" t="s">
+        <v>4535</v>
+      </c>
+      <c r="F1409" s="4">
+        <v>5700</v>
+      </c>
+      <c r="K1409" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Hi C1000 Health Drink Vitamin Lemon 140Ml',5700,'-','https://assets.klikindomaret.com/products/20114660/20114660_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1410" s="3" t="s">
+        <v>4536</v>
+      </c>
+      <c r="B1410" s="3" t="s">
+        <v>4600</v>
+      </c>
+      <c r="C1410" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1410" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1410" s="3" t="s">
+        <v>4537</v>
+      </c>
+      <c r="F1410" s="4">
+        <v>13500</v>
+      </c>
+      <c r="K1410" t="str">
+        <f t="shared" si="21"/>
+        <v>exec [S_Product_insertProduct] 'Coca-Cola Soft Drink 1500Ml',13500,'-','https://assets.klikindomaret.com/products/10000688/10000688_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1411" s="3" t="s">
+        <v>4538</v>
+      </c>
+      <c r="B1411" s="3" t="s">
+        <v>4601</v>
+      </c>
+      <c r="C1411" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1411" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1411" s="3" t="s">
+        <v>4539</v>
+      </c>
+      <c r="F1411" s="4">
+        <v>13500</v>
+      </c>
+      <c r="K1411" t="str">
+        <f t="shared" ref="K1411:K1474" si="22">CONCATENATE("exec [S_Product_insertProduct] '",E1411,"',",F1411, ",'","-","','",B1411,"'",",'C001', 'MM002'")</f>
+        <v>exec [S_Product_insertProduct] 'Fanta Soft Drink Strawberry 1500Ml',13500,'-','https://assets.klikindomaret.com/products/10000690/10000690_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1412" s="3" t="s">
+        <v>4540</v>
+      </c>
+      <c r="B1412" s="3" t="s">
+        <v>4602</v>
+      </c>
+      <c r="C1412" s="3" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D1412" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1412" s="3" t="s">
+        <v>4541</v>
+      </c>
+      <c r="F1412" s="4">
+        <v>13500</v>
+      </c>
+      <c r="K1412" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Sprite Soft Drink 1500Ml',13500,'-','https://assets.klikindomaret.com/products/10000689/10000689_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1413" s="3" t="s">
+        <v>4542</v>
+      </c>
+      <c r="B1413" s="3" t="s">
+        <v>4603</v>
+      </c>
+      <c r="C1413" s="3"/>
+      <c r="D1413" s="3"/>
+      <c r="E1413" s="3" t="s">
+        <v>4543</v>
+      </c>
+      <c r="F1413" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K1413" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Sido Muncul Jamu Lancar Datang Bulan Kunyit Asam 150mL',8000,'-','https://assets.klikindomaret.com/products/20124206/20124206_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1414" s="3" t="s">
+        <v>4544</v>
+      </c>
+      <c r="B1414" s="3" t="s">
+        <v>4605</v>
+      </c>
+      <c r="C1414" s="3"/>
+      <c r="D1414" s="3"/>
+      <c r="E1414" s="3" t="s">
+        <v>4545</v>
+      </c>
+      <c r="F1414" s="4">
+        <v>7300</v>
+      </c>
+      <c r="K1414" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kiranti Sehat Datang Bulan 150Ml',7300,'-','https://assets.klikindomaret.com/products/10003389/10003389_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1415" s="3" t="s">
+        <v>4546</v>
+      </c>
+      <c r="B1415" s="3" t="s">
+        <v>4606</v>
+      </c>
+      <c r="C1415" s="3"/>
+      <c r="D1415" s="3"/>
+      <c r="E1415" s="3" t="s">
+        <v>4547</v>
+      </c>
+      <c r="F1415" s="4">
+        <v>20500</v>
+      </c>
+      <c r="K1415" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Big Soft Drink Cola 3.1L',20500,'-','https://assets.klikindomaret.com/products/20046841/20046841_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1416" s="3" t="s">
+        <v>4548</v>
+      </c>
+      <c r="B1416" s="3" t="s">
+        <v>4607</v>
+      </c>
+      <c r="C1416" s="3"/>
+      <c r="D1416" s="3"/>
+      <c r="E1416" s="3" t="s">
+        <v>4549</v>
+      </c>
+      <c r="F1416" s="4">
+        <v>20500</v>
+      </c>
+      <c r="K1416" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Big Soft Drink Strawberry 3.1L',20500,'-','https://assets.klikindomaret.com/products/20046842/20046842_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1417" s="3" t="s">
+        <v>4550</v>
+      </c>
+      <c r="B1417" s="3" t="s">
+        <v>4608</v>
+      </c>
+      <c r="C1417" s="3"/>
+      <c r="D1417" s="3"/>
+      <c r="E1417" s="3" t="s">
+        <v>4551</v>
+      </c>
+      <c r="F1417" s="4">
+        <v>5800</v>
+      </c>
+      <c r="K1417" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Coolant Cooling Mountain Water Extract Crysanthemum 350Ml',5800,'-','https://assets.klikindomaret.com/products/20031344/20031344_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1418" s="3" t="s">
+        <v>4552</v>
+      </c>
+      <c r="B1418" s="3" t="s">
+        <v>4609</v>
+      </c>
+      <c r="C1418" s="3"/>
+      <c r="D1418" s="3"/>
+      <c r="E1418" s="3" t="s">
+        <v>4553</v>
+      </c>
+      <c r="F1418" s="4">
+        <v>5700</v>
+      </c>
+      <c r="K1418" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hi C1000 Health Drink Vitamin Orange 140Ml',5700,'-','https://assets.klikindomaret.com/products/20115982/20115982_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1419" s="3" t="s">
+        <v>4554</v>
+      </c>
+      <c r="B1419" s="3" t="s">
+        <v>4610</v>
+      </c>
+      <c r="C1419" s="3"/>
+      <c r="D1419" s="3"/>
+      <c r="E1419" s="3" t="s">
+        <v>4555</v>
+      </c>
+      <c r="F1419" s="4">
+        <v>23500</v>
+      </c>
+      <c r="K1419" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Pocari Sweat Minuman Isotonik 2000Ml',23500,'-','https://assets.klikindomaret.com/products/20025359/20025359_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1420" s="3" t="s">
+        <v>4556</v>
+      </c>
+      <c r="B1420" s="3" t="s">
+        <v>4611</v>
+      </c>
+      <c r="C1420" s="3"/>
+      <c r="D1420" s="3"/>
+      <c r="E1420" s="3" t="s">
+        <v>4557</v>
+      </c>
+      <c r="F1420" s="4">
+        <v>6200</v>
+      </c>
+      <c r="K1420" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'A&amp;W Soft Drink Sarsaparila 250mL',6200,'-','https://assets.klikindomaret.com/products/20123500/20123500_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1421" s="3" t="s">
+        <v>4558</v>
+      </c>
+      <c r="B1421" s="3" t="s">
+        <v>4612</v>
+      </c>
+      <c r="C1421" s="3"/>
+      <c r="D1421" s="3"/>
+      <c r="E1421" s="3" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F1421" s="4">
+        <v>6700</v>
+      </c>
+      <c r="K1421" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Activ Water Isotonic Drink + Vitamin Lemon 380mL',6700,'-','https://assets.klikindomaret.com/products/20125913/20125913_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1422" s="3" t="s">
+        <v>4560</v>
+      </c>
+      <c r="B1422" s="3" t="s">
+        <v>4613</v>
+      </c>
+      <c r="C1422" s="3"/>
+      <c r="D1422" s="3"/>
+      <c r="E1422" s="3" t="s">
+        <v>4561</v>
+      </c>
+      <c r="F1422" s="4">
+        <v>6700</v>
+      </c>
+      <c r="K1422" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Activ Water Isotonic Drink + Vitamin Triple Berry 380mL',6700,'-','https://assets.klikindomaret.com/products/20125914/20125914_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1423" s="3" t="s">
+        <v>4562</v>
+      </c>
+      <c r="B1423" s="3" t="s">
+        <v>4614</v>
+      </c>
+      <c r="C1423" s="3"/>
+      <c r="D1423" s="3"/>
+      <c r="E1423" s="3" t="s">
+        <v>4563</v>
+      </c>
+      <c r="F1423" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K1423" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Ching Ku Herbal Tea 325Ml',8100,'-','https://assets.klikindomaret.com/products/20083775/20083775_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1424" s="3" t="s">
+        <v>4564</v>
+      </c>
+      <c r="B1424" s="3" t="s">
+        <v>4615</v>
+      </c>
+      <c r="C1424" s="3"/>
+      <c r="D1424" s="3"/>
+      <c r="E1424" s="3" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F1424" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K1424" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Ching Ku Lemon 320Ml',8100,'-','https://assets.klikindomaret.com/products/20040276/20040276_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3" t="s">
+        <v>4566</v>
+      </c>
+      <c r="B1425" s="3" t="s">
+        <v>4616</v>
+      </c>
+      <c r="C1425" s="3"/>
+      <c r="D1425" s="3"/>
+      <c r="E1425" s="3" t="s">
+        <v>4567</v>
+      </c>
+      <c r="F1425" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K1425" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Ching Ku Minuman Penyejuk 350Ml',8100,'-','https://assets.klikindomaret.com/products/20053540/20053540_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1426" s="3" t="s">
+        <v>4568</v>
+      </c>
+      <c r="B1426" s="3" t="s">
+        <v>4617</v>
+      </c>
+      <c r="C1426" s="3"/>
+      <c r="D1426" s="3"/>
+      <c r="E1426" s="3" t="s">
+        <v>4569</v>
+      </c>
+      <c r="F1426" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K1426" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Ching Ku Sparkling 320Ml',8100,'-','https://assets.klikindomaret.com/products/20071642/20071642_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3" t="s">
+        <v>4570</v>
+      </c>
+      <c r="B1427" s="3" t="s">
+        <v>4618</v>
+      </c>
+      <c r="C1427" s="3"/>
+      <c r="D1427" s="3"/>
+      <c r="E1427" s="3" t="s">
+        <v>4571</v>
+      </c>
+      <c r="F1427" s="4">
+        <v>8100</v>
+      </c>
+      <c r="K1427" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Ching Ku Teh Hijau Madu Lemon Tea 350mL',8100,'-','https://assets.klikindomaret.com/products/20122090/20122090_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3" t="s">
+        <v>4572</v>
+      </c>
+      <c r="B1428" s="3" t="s">
+        <v>4619</v>
+      </c>
+      <c r="C1428" s="3"/>
+      <c r="D1428" s="3"/>
+      <c r="E1428" s="3" t="s">
+        <v>4573</v>
+      </c>
+      <c r="F1428" s="4">
+        <v>8700</v>
+      </c>
+      <c r="K1428" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Alang Sari Minuman Cool Jeruk Nipis 300mL',8700,'-','https://assets.klikindomaret.com/products/20127835/20127835_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1429" s="3" t="s">
+        <v>4574</v>
+      </c>
+      <c r="B1429" s="3" t="s">
+        <v>4620</v>
+      </c>
+      <c r="C1429" s="3"/>
+      <c r="D1429" s="3"/>
+      <c r="E1429" s="3" t="s">
+        <v>4575</v>
+      </c>
+      <c r="F1429" s="4">
+        <v>8600</v>
+      </c>
+      <c r="K1429" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Amunizer Drink Vitamin C-1000Mg 140Ml',8600,'-','https://assets.klikindomaret.com/products/20113135/20113135_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1430" s="3" t="s">
+        <v>4576</v>
+      </c>
+      <c r="B1430" s="3" t="s">
+        <v>4621</v>
+      </c>
+      <c r="C1430" s="3"/>
+      <c r="D1430" s="3"/>
+      <c r="E1430" s="3" t="s">
+        <v>4577</v>
+      </c>
+      <c r="F1430" s="4">
+        <v>3300</v>
+      </c>
+      <c r="K1430" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Big Soft Drink Blueberry 325mL',3300,'-','https://assets.klikindomaret.com/products/20100141/20100141_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1431" s="3" t="s">
+        <v>4578</v>
+      </c>
+      <c r="B1431" s="3" t="s">
+        <v>4622</v>
+      </c>
+      <c r="C1431" s="3"/>
+      <c r="D1431" s="3"/>
+      <c r="E1431" s="3" t="s">
+        <v>4579</v>
+      </c>
+      <c r="F1431" s="4">
+        <v>3400</v>
+      </c>
+      <c r="K1431" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Big Soft Drink Cola 375mL',3400,'-','https://assets.klikindomaret.com/products/20032785/20032785_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1432" s="3" t="s">
+        <v>4580</v>
+      </c>
+      <c r="B1432" s="3" t="s">
+        <v>4623</v>
+      </c>
+      <c r="C1432" s="3"/>
+      <c r="D1432" s="3"/>
+      <c r="E1432" s="3" t="s">
+        <v>4581</v>
+      </c>
+      <c r="F1432" s="4">
+        <v>14100</v>
+      </c>
+      <c r="K1432" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Bintang Radler 0.0% Blackcurrant &amp; Lime 330Ml',14100,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20106266/20106266_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1433" s="3" t="s">
+        <v>4582</v>
+      </c>
+      <c r="B1433" s="3" t="s">
+        <v>4624</v>
+      </c>
+      <c r="C1433" s="3"/>
+      <c r="D1433" s="3"/>
+      <c r="E1433" s="3" t="s">
+        <v>4583</v>
+      </c>
+      <c r="F1433" s="4">
+        <v>14100</v>
+      </c>
+      <c r="K1433" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Bintang Soft Drink Radler 0.0% 330Ml',14100,'-','https://assets.klikindomaret.com/promos/20230610_07_00_20230613_23_00/20066758/20066758_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1434" s="3" t="s">
+        <v>4584</v>
+      </c>
+      <c r="B1434" s="3" t="s">
+        <v>4625</v>
+      </c>
+      <c r="C1434" s="3"/>
+      <c r="D1434" s="3"/>
+      <c r="E1434" s="3" t="s">
+        <v>4585</v>
+      </c>
+      <c r="F1434" s="4">
+        <v>8800</v>
+      </c>
+      <c r="K1434" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Bintang Zero Soft Drink 330Ml',8800,'-','https://assets.klikindomaret.com/products/10033567/10033567_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1435" s="3" t="s">
+        <v>4586</v>
+      </c>
+      <c r="B1435" s="3" t="s">
+        <v>4626</v>
+      </c>
+      <c r="C1435" s="3"/>
+      <c r="D1435" s="3"/>
+      <c r="E1435" s="3" t="s">
+        <v>4587</v>
+      </c>
+      <c r="F1435" s="4">
+        <v>7900</v>
+      </c>
+      <c r="K1435" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Cap Badak Larutan Penyegar Putih 500Ml',7900,'-','https://assets.klikindomaret.com/products/10008581/10008581_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1436" s="3" t="s">
+        <v>4588</v>
+      </c>
+      <c r="B1436" s="3" t="s">
+        <v>4627</v>
+      </c>
+      <c r="C1436" s="3"/>
+      <c r="D1436" s="3"/>
+      <c r="E1436" s="3" t="s">
+        <v>4589</v>
+      </c>
+      <c r="F1436" s="4">
+        <v>8500</v>
+      </c>
+      <c r="K1436" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Chi Forest Sparkling Water Lychee Fizzy 480mL',8500,'-','https://assets.klikindomaret.com/products/20124899/20124899_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1437" s="3" t="s">
+        <v>4590</v>
+      </c>
+      <c r="B1437" s="3" t="s">
+        <v>4628</v>
+      </c>
+      <c r="C1437" s="3"/>
+      <c r="D1437" s="3"/>
+      <c r="E1437" s="3" t="s">
+        <v>4591</v>
+      </c>
+      <c r="F1437" s="4">
+        <v>8500</v>
+      </c>
+      <c r="K1437" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Chi Forest Sparkling Water White Peach 480mL',8500,'-','https://assets.klikindomaret.com/products/20124898/20124898_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1438" s="3" t="s">
+        <v>4592</v>
+      </c>
+      <c r="B1438" s="3" t="s">
+        <v>4629</v>
+      </c>
+      <c r="C1438" s="3"/>
+      <c r="D1438" s="3"/>
+      <c r="E1438" s="3" t="s">
+        <v>4593</v>
+      </c>
+      <c r="F1438" s="4">
+        <v>5000</v>
+      </c>
+      <c r="K1438" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Coca Cola Soft Drink Slim 250mL',5000,'-','https://assets.klikindomaret.com/products/10030804/10030804_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1439" s="3" t="s">
+        <v>4594</v>
+      </c>
+      <c r="B1439" s="3" t="s">
+        <v>4630</v>
+      </c>
+      <c r="C1439" s="3"/>
+      <c r="D1439" s="3"/>
+      <c r="E1439" s="3" t="s">
+        <v>4595</v>
+      </c>
+      <c r="F1439" s="4">
+        <v>5400</v>
+      </c>
+      <c r="K1439" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Coca-Cola Soft Drink 390Ml',5400,'-','https://assets.klikindomaret.com/products/20065778/20065778_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1440" s="3" t="s">
+        <v>4596</v>
+      </c>
+      <c r="B1440" s="3" t="s">
+        <v>4631</v>
+      </c>
+      <c r="C1440" s="3"/>
+      <c r="D1440" s="3"/>
+      <c r="E1440" s="3" t="s">
+        <v>4597</v>
+      </c>
+      <c r="F1440" s="4">
+        <v>8000</v>
+      </c>
+      <c r="K1440" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Cocomas Coconut Drink Ori 330mL',8000,'-','https://assets.klikindomaret.com/products/20122700/20122700_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1441" s="3" t="s">
+        <v>4598</v>
+      </c>
+      <c r="B1441" s="3" t="s">
+        <v>4632</v>
+      </c>
+      <c r="C1441" s="3"/>
+      <c r="D1441" s="3"/>
+      <c r="E1441" s="3" t="s">
+        <v>4599</v>
+      </c>
+      <c r="F1441" s="4">
+        <v>10200</v>
+      </c>
+      <c r="K1441" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Delmonte Boba Milk Tea Matcha 240Ml',10200,'-','https://assets.klikindomaret.com/products/20117687/20117687_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1442" s="5" t="s">
+        <v>4633</v>
+      </c>
+      <c r="B1442" s="5" t="s">
+        <v>4634</v>
+      </c>
+      <c r="C1442" s="6"/>
+      <c r="D1442" s="6"/>
+      <c r="E1442" s="5" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F1442" s="5">
+        <v>10200</v>
+      </c>
+      <c r="K1442" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Delmonte Boba Milk Tea Red Velvet 240Ml',10200,'-','https://assets.klikindomaret.com/products/20117682/20117682_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1443" s="5" t="s">
+        <v>4636</v>
+      </c>
+      <c r="B1443" s="5" t="s">
+        <v>4637</v>
+      </c>
+      <c r="C1443" s="6"/>
+      <c r="D1443" s="6"/>
+      <c r="E1443" s="5" t="s">
+        <v>4638</v>
+      </c>
+      <c r="F1443" s="5">
+        <v>13500</v>
+      </c>
+      <c r="K1443" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Fanta Soft Drink Orange 1500Ml',13500,'-','https://assets.klikindomaret.com/products/20036764/20036764_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1444" s="5" t="s">
+        <v>4639</v>
+      </c>
+      <c r="B1444" s="5" t="s">
+        <v>4640</v>
+      </c>
+      <c r="C1444" s="6"/>
+      <c r="D1444" s="6"/>
+      <c r="E1444" s="5" t="s">
+        <v>4641</v>
+      </c>
+      <c r="F1444" s="5">
+        <v>5400</v>
+      </c>
+      <c r="K1444" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Fanta Soft Drink Strawberry 390Ml',5400,'-','https://assets.klikindomaret.com/products/20065780/20065780_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1445" s="5" t="s">
+        <v>4642</v>
+      </c>
+      <c r="B1445" s="5" t="s">
+        <v>4643</v>
+      </c>
+      <c r="C1445" s="6"/>
+      <c r="D1445" s="6"/>
+      <c r="E1445" s="5" t="s">
+        <v>4644</v>
+      </c>
+      <c r="F1445" s="5">
+        <v>3000</v>
+      </c>
+      <c r="K1445" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Floridina Juice Pulp Coco Bit 350Ml',3000,'-','https://assets.klikindomaret.com/products/20113377/20113377_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1446" s="5" t="s">
+        <v>4645</v>
+      </c>
+      <c r="B1446" s="5" t="s">
+        <v>4646</v>
+      </c>
+      <c r="C1446" s="6"/>
+      <c r="D1446" s="6"/>
+      <c r="E1446" s="5" t="s">
+        <v>4647</v>
+      </c>
+      <c r="F1446" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K1446" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Fruitamin Minuman Coco Bit Splash Guava 350Ml',7000,'-','https://assets.klikindomaret.com/products/20091654/20091654_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1447" s="5" t="s">
+        <v>4648</v>
+      </c>
+      <c r="B1447" s="5" t="s">
+        <v>4649</v>
+      </c>
+      <c r="C1447" s="6"/>
+      <c r="D1447" s="6"/>
+      <c r="E1447" s="5" t="s">
+        <v>4650</v>
+      </c>
+      <c r="F1447" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K1447" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Fruitamin Minuman Coco Bit Splash Mango 350Ml',7000,'-','https://assets.klikindomaret.com/products/20112659/20112659_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1448" s="5" t="s">
+        <v>4651</v>
+      </c>
+      <c r="B1448" s="5" t="s">
+        <v>4652</v>
+      </c>
+      <c r="C1448" s="6"/>
+      <c r="D1448" s="6"/>
+      <c r="E1448" s="5" t="s">
+        <v>4653</v>
+      </c>
+      <c r="F1448" s="5">
+        <v>3100</v>
+      </c>
+      <c r="K1448" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Garantea Minuman Teh Hijau Apel 350mL',3100,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20129112/20129112_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1449" s="5" t="s">
+        <v>4654</v>
+      </c>
+      <c r="B1449" s="5" t="s">
+        <v>4655</v>
+      </c>
+      <c r="C1449" s="6"/>
+      <c r="D1449" s="6"/>
+      <c r="E1449" s="5" t="s">
+        <v>4656</v>
+      </c>
+      <c r="F1449" s="5">
+        <v>8300</v>
+      </c>
+      <c r="K1449" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Green Sands Original Lime &amp; Apple 330Ml',8300,'-','https://assets.klikindomaret.com/products/10000107/10000107_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1450" s="5" t="s">
+        <v>4657</v>
+      </c>
+      <c r="B1450" s="5" t="s">
+        <v>4658</v>
+      </c>
+      <c r="C1450" s="6"/>
+      <c r="D1450" s="6"/>
+      <c r="E1450" s="5" t="s">
+        <v>4659</v>
+      </c>
+      <c r="F1450" s="5">
+        <v>6500</v>
+      </c>
+      <c r="K1450" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Green Sands Soft Drink Lemon &amp; Grape 250Ml',6500,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20068089/20068089_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1451" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1451" s="5" t="s">
+        <v>4660</v>
+      </c>
+      <c r="B1451" s="5" t="s">
+        <v>4661</v>
+      </c>
+      <c r="C1451" s="6"/>
+      <c r="D1451" s="6"/>
+      <c r="E1451" s="5" t="s">
+        <v>4662</v>
+      </c>
+      <c r="F1451" s="5">
+        <v>5800</v>
+      </c>
+      <c r="K1451" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hemaviton Energi Drink 150Ml',5800,'-','https://assets.klikindomaret.com/products/10006263/10006263_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1452" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1452" s="5" t="s">
+        <v>4663</v>
+      </c>
+      <c r="B1452" s="5" t="s">
+        <v>4664</v>
+      </c>
+      <c r="C1452" s="6"/>
+      <c r="D1452" s="6"/>
+      <c r="E1452" s="5" t="s">
+        <v>4665</v>
+      </c>
+      <c r="F1452" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K1452" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hemaviton Health Drink C1000 + Collagen Orange 150Ml',7000,'-','https://assets.klikindomaret.com/products/20066629/20066629_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1453" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1453" s="5" t="s">
+        <v>4666</v>
+      </c>
+      <c r="B1453" s="5" t="s">
+        <v>4667</v>
+      </c>
+      <c r="C1453" s="6"/>
+      <c r="D1453" s="6"/>
+      <c r="E1453" s="5" t="s">
+        <v>4668</v>
+      </c>
+      <c r="F1453" s="5">
+        <v>7300</v>
+      </c>
+      <c r="K1453" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hemaviton Health Drink Vitamin C1000 Orange 330Ml',7300,'-','https://assets.klikindomaret.com/products/20048546/20048546_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1454" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1454" s="5" t="s">
+        <v>4669</v>
+      </c>
+      <c r="B1454" s="5" t="s">
+        <v>4670</v>
+      </c>
+      <c r="C1454" s="6"/>
+      <c r="D1454" s="6"/>
+      <c r="E1454" s="5" t="s">
+        <v>4671</v>
+      </c>
+      <c r="F1454" s="5">
+        <v>7300</v>
+      </c>
+      <c r="K1454" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hemaviton Vitamin C1000 Lemon 330Ml',7300,'-','https://assets.klikindomaret.com/products/20103368/20103368_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1455" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1455" s="5" t="s">
+        <v>4672</v>
+      </c>
+      <c r="B1455" s="5" t="s">
+        <v>4673</v>
+      </c>
+      <c r="C1455" s="6"/>
+      <c r="D1455" s="6"/>
+      <c r="E1455" s="5" t="s">
+        <v>4674</v>
+      </c>
+      <c r="F1455" s="5">
+        <v>7300</v>
+      </c>
+      <c r="K1455" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hemaviton Vitamin C1000 Less Sugar Orange 330Ml',7300,'-','https://assets.klikindomaret.com/products/20103178/20103178_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1456" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1456" s="5" t="s">
+        <v>4675</v>
+      </c>
+      <c r="B1456" s="5" t="s">
+        <v>4676</v>
+      </c>
+      <c r="C1456" s="6"/>
+      <c r="D1456" s="6"/>
+      <c r="E1456" s="5" t="s">
+        <v>4677</v>
+      </c>
+      <c r="F1456" s="5">
+        <v>24800</v>
+      </c>
+      <c r="K1456" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hydro Coco Natural Health Drink 1L',24800,'-','https://assets.klikindomaret.com/products/20116490/20116490_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1457" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1457" s="5" t="s">
+        <v>4678</v>
+      </c>
+      <c r="B1457" s="5" t="s">
+        <v>4679</v>
+      </c>
+      <c r="C1457" s="6"/>
+      <c r="D1457" s="6"/>
+      <c r="E1457" s="5" t="s">
+        <v>4680</v>
+      </c>
+      <c r="F1457" s="5">
+        <v>8000</v>
+      </c>
+      <c r="K1457" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hydro Coco Natural Health Drink 250Ml',8000,'-','https://assets.klikindomaret.com/products/20018435/20018435_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1458" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1458" s="5" t="s">
+        <v>4681</v>
+      </c>
+      <c r="B1458" s="5" t="s">
+        <v>4682</v>
+      </c>
+      <c r="C1458" s="6"/>
+      <c r="D1458" s="6"/>
+      <c r="E1458" s="5" t="s">
+        <v>4683</v>
+      </c>
+      <c r="F1458" s="5">
+        <v>14900</v>
+      </c>
+      <c r="K1458" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hydro Coco Natural Health Drink 500Ml',14900,'-','https://assets.klikindomaret.com/products/20057867/20057867_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1459" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1459" s="5" t="s">
+        <v>4684</v>
+      </c>
+      <c r="B1459" s="5" t="s">
+        <v>4685</v>
+      </c>
+      <c r="C1459" s="6"/>
+      <c r="D1459" s="6"/>
+      <c r="E1459" s="5" t="s">
+        <v>4686</v>
+      </c>
+      <c r="F1459" s="5">
+        <v>10000</v>
+      </c>
+      <c r="K1459" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Hydro Coco Natural Health Drink Vita-D 330mL',10000,'-','https://assets.klikindomaret.com/products/20119876/20119876_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1460" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1460" s="5" t="s">
+        <v>4687</v>
+      </c>
+      <c r="B1460" s="5" t="s">
+        <v>4688</v>
+      </c>
+      <c r="C1460" s="6"/>
+      <c r="D1460" s="6"/>
+      <c r="E1460" s="5" t="s">
+        <v>4689</v>
+      </c>
+      <c r="F1460" s="5">
+        <v>3800</v>
+      </c>
+      <c r="K1460" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Ichi Ocha Minuman Teh Madu Lemon 350mL',3800,'-','https://assets.klikindomaret.com/products/20123862/20123862_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1461" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1461" s="5" t="s">
+        <v>4690</v>
+      </c>
+      <c r="B1461" s="5" t="s">
+        <v>4691</v>
+      </c>
+      <c r="C1461" s="6"/>
+      <c r="D1461" s="6"/>
+      <c r="E1461" s="5" t="s">
+        <v>4692</v>
+      </c>
+      <c r="F1461" s="5">
+        <v>7200</v>
+      </c>
+      <c r="K1461" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Indomaret Coconut Water 250mL',7200,'-','https://assets.klikindomaret.com/products/20115548/20115548_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1462" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1462" s="5" t="s">
+        <v>4693</v>
+      </c>
+      <c r="B1462" s="5" t="s">
+        <v>4694</v>
+      </c>
+      <c r="C1462" s="6"/>
+      <c r="D1462" s="6"/>
+      <c r="E1462" s="5" t="s">
+        <v>4695</v>
+      </c>
+      <c r="F1462" s="5">
+        <v>3100</v>
+      </c>
+      <c r="K1462" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Isoplus Minuman Isotonik 350Ml',3100,'-','https://assets.klikindomaret.com/products/20069773/20069773_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1463" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1463" s="5" t="s">
+        <v>4696</v>
+      </c>
+      <c r="B1463" s="5" t="s">
+        <v>4697</v>
+      </c>
+      <c r="C1463" s="6"/>
+      <c r="D1463" s="6"/>
+      <c r="E1463" s="5" t="s">
+        <v>4698</v>
+      </c>
+      <c r="F1463" s="5">
+        <v>6600</v>
+      </c>
+      <c r="K1463" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Jambu Biji 320Ml',6600,'-','https://assets.klikindomaret.com/products/20037150/20037150_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1464" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1464" s="5" t="s">
+        <v>4699</v>
+      </c>
+      <c r="B1464" s="5" t="s">
+        <v>4700</v>
+      </c>
+      <c r="C1464" s="6"/>
+      <c r="D1464" s="6"/>
+      <c r="E1464" s="5" t="s">
+        <v>4701</v>
+      </c>
+      <c r="F1464" s="5">
+        <v>6600</v>
+      </c>
+      <c r="K1464" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Jeruk Nipis 320Ml',6600,'-','https://assets.klikindomaret.com/products/20069199/20069199_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1465" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1465" s="5" t="s">
+        <v>4702</v>
+      </c>
+      <c r="B1465" s="5" t="s">
+        <v>4703</v>
+      </c>
+      <c r="C1465" s="6"/>
+      <c r="D1465" s="6"/>
+      <c r="E1465" s="5" t="s">
+        <v>4704</v>
+      </c>
+      <c r="F1465" s="5">
+        <v>6600</v>
+      </c>
+      <c r="K1465" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Leci 320Ml',6600,'-','https://assets.klikindomaret.com/products/20037144/20037144_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1466" s="5" t="s">
+        <v>4705</v>
+      </c>
+      <c r="B1466" s="5" t="s">
+        <v>4706</v>
+      </c>
+      <c r="C1466" s="6"/>
+      <c r="D1466" s="6"/>
+      <c r="E1466" s="5" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F1466" s="5">
+        <v>8200</v>
+      </c>
+      <c r="K1466" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kaki Tiga Larutan Penyegar Putih 500Ml',8200,'-','https://assets.klikindomaret.com/products/20037153/20037153_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1467" s="5" t="s">
+        <v>4708</v>
+      </c>
+      <c r="B1467" s="5" t="s">
+        <v>4709</v>
+      </c>
+      <c r="C1467" s="6"/>
+      <c r="D1467" s="6"/>
+      <c r="E1467" s="5" t="s">
+        <v>4710</v>
+      </c>
+      <c r="F1467" s="5">
+        <v>7700</v>
+      </c>
+      <c r="K1467" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kiranti Juice Sehat Datang Bulan Orange 150Ml',7700,'-','https://assets.klikindomaret.com/products/20029054/20029054_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1468" s="5" t="s">
+        <v>4711</v>
+      </c>
+      <c r="B1468" s="5" t="s">
+        <v>4712</v>
+      </c>
+      <c r="C1468" s="6"/>
+      <c r="D1468" s="6"/>
+      <c r="E1468" s="5" t="s">
+        <v>4713</v>
+      </c>
+      <c r="F1468" s="5">
+        <v>6900</v>
+      </c>
+      <c r="K1468" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kratingdaeng Energy Drink Reguler 150Ml',6900,'-','https://assets.klikindomaret.com/products/10002595/10002595_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1469" s="5" t="s">
+        <v>4714</v>
+      </c>
+      <c r="B1469" s="5" t="s">
+        <v>4715</v>
+      </c>
+      <c r="C1469" s="6"/>
+      <c r="D1469" s="6"/>
+      <c r="E1469" s="5" t="s">
+        <v>4716</v>
+      </c>
+      <c r="F1469" s="5">
+        <v>7200</v>
+      </c>
+      <c r="K1469" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Kratingdaeng Energy Drink Super 150Ml',7200,'-','https://assets.klikindomaret.com/products/10003427/10003427_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1470" s="5" t="s">
+        <v>4717</v>
+      </c>
+      <c r="B1470" s="5" t="s">
+        <v>4718</v>
+      </c>
+      <c r="C1470" s="6"/>
+      <c r="D1470" s="6"/>
+      <c r="E1470" s="5" t="s">
+        <v>4719</v>
+      </c>
+      <c r="F1470" s="5">
+        <v>6300</v>
+      </c>
+      <c r="K1470" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Lasegar Twist Jeruk-Lemon 320mL',6300,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20121348/20121348_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1471" s="5" t="s">
+        <v>4720</v>
+      </c>
+      <c r="B1471" s="5" t="s">
+        <v>4721</v>
+      </c>
+      <c r="C1471" s="6"/>
+      <c r="D1471" s="6"/>
+      <c r="E1471" s="5" t="s">
+        <v>4722</v>
+      </c>
+      <c r="F1471" s="5">
+        <v>6300</v>
+      </c>
+      <c r="K1471" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Lasegar Twist Lemon 320mL',6300,'-','https://assets.klikindomaret.com/promos/20230610_14_00_20230613_23_00/20121346/20121346_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1472" s="5" t="s">
+        <v>4723</v>
+      </c>
+      <c r="B1472" s="5" t="s">
+        <v>4724</v>
+      </c>
+      <c r="C1472" s="6"/>
+      <c r="D1472" s="6"/>
+      <c r="E1472" s="5" t="s">
+        <v>4725</v>
+      </c>
+      <c r="F1472" s="5">
+        <v>2800</v>
+      </c>
+      <c r="K1472" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Milkido Susu Cokelat 200ml',2800,'-','https://assets.klikindomaret.com/products/20126817/20126817_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1473" s="5" t="s">
+        <v>4726</v>
+      </c>
+      <c r="B1473" s="5" t="s">
+        <v>4727</v>
+      </c>
+      <c r="C1473" s="6"/>
+      <c r="E1473" s="5" t="s">
+        <v>4728</v>
+      </c>
+      <c r="F1473" s="5">
+        <v>5600</v>
+      </c>
+      <c r="K1473" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Mizone Active Minuman Isotonik Lychee Lemon 500Ml',5600,'-','https://assets.klikindomaret.com/products/20094164/20094164_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1474" s="5" t="s">
+        <v>4729</v>
+      </c>
+      <c r="B1474" s="5" t="s">
+        <v>4730</v>
+      </c>
+      <c r="C1474" s="6"/>
+      <c r="E1474" s="5" t="s">
+        <v>4731</v>
+      </c>
+      <c r="F1474" s="5">
+        <v>5600</v>
+      </c>
+      <c r="K1474" t="str">
+        <f t="shared" si="22"/>
+        <v>exec [S_Product_insertProduct] 'Mizone Mood Up Minuman Isotonik Cranberry 500Ml',5600,'-','https://assets.klikindomaret.com/products/20094167/20094167_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1475" s="5" t="s">
+        <v>4732</v>
+      </c>
+      <c r="B1475" s="5" t="s">
+        <v>4733</v>
+      </c>
+      <c r="E1475" s="5" t="s">
+        <v>4734</v>
+      </c>
+      <c r="F1475" s="5">
+        <v>8500</v>
+      </c>
+      <c r="K1475" t="str">
+        <f t="shared" ref="K1475:K1524" si="23">CONCATENATE("exec [S_Product_insertProduct] '",E1475,"',",F1475, ",'","-","','",B1475,"'",",'C001', 'MM002'")</f>
+        <v>exec [S_Product_insertProduct] 'Mogu-Mogu Minuman Nata De Coco Sirsak 320Ml',8500,'-','https://assets.klikindomaret.com/products/20101381/20101381_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1476" s="5" t="s">
+        <v>4735</v>
+      </c>
+      <c r="B1476" s="5" t="s">
+        <v>4736</v>
+      </c>
+      <c r="E1476" s="5" t="s">
+        <v>4737</v>
+      </c>
+      <c r="F1476" s="5">
+        <v>3700</v>
+      </c>
+      <c r="K1476" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Mr.Natta Minuman Nata De Coco &amp; Jelly Blueberry 126Ml',3700,'-','https://assets.klikindomaret.com/products/20112382/20112382_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1477" s="5" t="s">
+        <v>4738</v>
+      </c>
+      <c r="B1477" s="5" t="s">
+        <v>4739</v>
+      </c>
+      <c r="E1477" s="5" t="s">
+        <v>4740</v>
+      </c>
+      <c r="F1477" s="5">
+        <v>3700</v>
+      </c>
+      <c r="K1477" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Mr.Natta Minuman Nata De Coco &amp; Jelly Leci 126Ml',3700,'-','https://assets.klikindomaret.com/products/20112383/20112383_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1478" s="5" t="s">
+        <v>4741</v>
+      </c>
+      <c r="B1478" s="5" t="s">
+        <v>4742</v>
+      </c>
+      <c r="E1478" s="5" t="s">
+        <v>4743</v>
+      </c>
+      <c r="F1478" s="5">
+        <v>6000</v>
+      </c>
+      <c r="K1478" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Neo Hormoviton Energi Drink 150Ml',6000,'-','https://assets.klikindomaret.com/products/20014608/20014608_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1479" s="5" t="s">
+        <v>4744</v>
+      </c>
+      <c r="B1479" s="5" t="s">
+        <v>4745</v>
+      </c>
+      <c r="E1479" s="5" t="s">
+        <v>4746</v>
+      </c>
+      <c r="F1479" s="5">
+        <v>8200</v>
+      </c>
+      <c r="K1479" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Nu Minuman Choco Tea Hazeltea 330mL',8200,'-','https://assets.klikindomaret.com/products/20128233/20128233_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1480" s="5" t="s">
+        <v>4747</v>
+      </c>
+      <c r="B1480" s="5" t="s">
+        <v>4748</v>
+      </c>
+      <c r="E1480" s="5" t="s">
+        <v>4749</v>
+      </c>
+      <c r="F1480" s="5">
+        <v>6700</v>
+      </c>
+      <c r="K1480" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Nutriville Collagen Drink Grape 250mL',6700,'-','https://assets.klikindomaret.com/products/20123474/20123474_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1481" s="5" t="s">
+        <v>4750</v>
+      </c>
+      <c r="B1481" s="5" t="s">
+        <v>4751</v>
+      </c>
+      <c r="E1481" s="5" t="s">
+        <v>4752</v>
+      </c>
+      <c r="F1481" s="5">
+        <v>7000</v>
+      </c>
+      <c r="K1481" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Oronamin C Minuman Bervitamin 120Ml',7000,'-','https://assets.klikindomaret.com/products/20089821/20089821_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1482" s="5" t="s">
+        <v>4753</v>
+      </c>
+      <c r="B1482" s="5" t="s">
+        <v>4754</v>
+      </c>
+      <c r="E1482" s="5" t="s">
+        <v>4755</v>
+      </c>
+      <c r="F1482" s="5">
+        <v>4400</v>
+      </c>
+      <c r="K1482" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Panda Grass Jelly Drink 310Ml',4400,'-','https://assets.klikindomaret.com/products/20046319/20046319_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1483" s="5" t="s">
+        <v>4756</v>
+      </c>
+      <c r="B1483" s="5" t="s">
+        <v>4757</v>
+      </c>
+      <c r="E1483" s="5" t="s">
+        <v>4758</v>
+      </c>
+      <c r="F1483" s="5">
+        <v>4400</v>
+      </c>
+      <c r="K1483" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Panda Grass Jelly Drink Basil Seed 310mL',4400,'-','https://assets.klikindomaret.com/products/20120929/20120929_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1484" s="5" t="s">
+        <v>4759</v>
+      </c>
+      <c r="B1484" s="5" t="s">
+        <v>4760</v>
+      </c>
+      <c r="E1484" s="5" t="s">
+        <v>4761</v>
+      </c>
+      <c r="F1484" s="5">
+        <v>7500</v>
+      </c>
+      <c r="K1484" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Pocari Sweat Minuman Isotonik 500Ml',7500,'-','https://assets.klikindomaret.com/products/20009722/20009722_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1485" s="5" t="s">
+        <v>4762</v>
+      </c>
+      <c r="B1485" s="5" t="s">
+        <v>4763</v>
+      </c>
+      <c r="E1485" s="5" t="s">
+        <v>4764</v>
+      </c>
+      <c r="F1485" s="5">
+        <v>13700</v>
+      </c>
+      <c r="K1485" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Pocari Sweat Minuman Isotonik 900Ml',13700,'-','https://assets.klikindomaret.com/products/20038777/20038777_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1486" s="5" t="s">
+        <v>4765</v>
+      </c>
+      <c r="B1486" s="5" t="s">
+        <v>4766</v>
+      </c>
+      <c r="E1486" s="5" t="s">
+        <v>4767</v>
+      </c>
+      <c r="F1486" s="5">
+        <v>24400</v>
+      </c>
+      <c r="K1486" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Red Bull Energy Drink 250Ml',24400,'-','https://assets.klikindomaret.com/products/20022431/20022431_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1487" s="5" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B1487" s="5" t="s">
+        <v>4769</v>
+      </c>
+      <c r="E1487" s="5" t="s">
+        <v>4770</v>
+      </c>
+      <c r="F1487" s="5">
+        <v>8600</v>
+      </c>
+      <c r="K1487" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Red Bull Gold Energy Drink Can 250Ml',8600,'-','https://assets.klikindomaret.com/products/20056989/20056989_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1488" s="5" t="s">
+        <v>4771</v>
+      </c>
+      <c r="B1488" s="5" t="s">
+        <v>4772</v>
+      </c>
+      <c r="E1488" s="5" t="s">
+        <v>4773</v>
+      </c>
+      <c r="F1488" s="5">
+        <v>3800</v>
+      </c>
+      <c r="K1488" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sosro Fruit Tea Lemon 350Ml',3800,'-','https://assets.klikindomaret.com/products/20082888/20082888_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1489" s="5" t="s">
+        <v>4774</v>
+      </c>
+      <c r="B1489" s="5" t="s">
+        <v>4775</v>
+      </c>
+      <c r="E1489" s="5" t="s">
+        <v>4776</v>
+      </c>
+      <c r="F1489" s="5">
+        <v>3800</v>
+      </c>
+      <c r="K1489" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sosro Fruit Tea Markisa 350Ml',3800,'-','https://assets.klikindomaret.com/products/20079972/20079972_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1490" s="5" t="s">
+        <v>4777</v>
+      </c>
+      <c r="B1490" s="5" t="s">
+        <v>4778</v>
+      </c>
+      <c r="E1490" s="5" t="s">
+        <v>4779</v>
+      </c>
+      <c r="F1490" s="5">
+        <v>3800</v>
+      </c>
+      <c r="K1490" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sosro Fruit Tea Strawberry 350Ml',3800,'-','https://assets.klikindomaret.com/products/20087094/20087094_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1491" s="5" t="s">
+        <v>4780</v>
+      </c>
+      <c r="B1491" s="5" t="s">
+        <v>4781</v>
+      </c>
+      <c r="E1491" s="5" t="s">
+        <v>4782</v>
+      </c>
+      <c r="F1491" s="5">
+        <v>5400</v>
+      </c>
+      <c r="K1491" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sprite Soft Drink 390Ml',5400,'-','https://assets.klikindomaret.com/products/20065779/20065779_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1492" s="6" t="s">
+        <v>4783</v>
+      </c>
+      <c r="B1492" s="6" t="s">
+        <v>4784</v>
+      </c>
+      <c r="E1492" s="6" t="s">
+        <v>4785</v>
+      </c>
+      <c r="F1492" s="6">
+        <v>4700</v>
+      </c>
+      <c r="G1492" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1492" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sprite Soft Drink Waterlymon 425Ml',4700,'-','https://assets.klikindomaret.com/products/20097484/20097484_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1493" s="6" t="s">
+        <v>4786</v>
+      </c>
+      <c r="B1493" s="6" t="s">
+        <v>4787</v>
+      </c>
+      <c r="E1493" s="6" t="s">
+        <v>4788</v>
+      </c>
+      <c r="F1493" s="6">
+        <v>2400</v>
+      </c>
+      <c r="G1493" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1493" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'S-Tee Minuman Teh Melati 200Ml',2400,'-','https://assets.klikindomaret.com/products/20112394/20112394_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1494" s="6" t="s">
+        <v>4789</v>
+      </c>
+      <c r="B1494" s="6" t="s">
+        <v>4790</v>
+      </c>
+      <c r="E1494" s="6" t="s">
+        <v>4791</v>
+      </c>
+      <c r="F1494" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G1494" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1494" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Tango Drink Dreamy Strawberry 250mL',5000,'-','https://assets.klikindomaret.com/products/20126816/20126816_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1495" s="6" t="s">
+        <v>4792</v>
+      </c>
+      <c r="B1495" s="6" t="s">
+        <v>4793</v>
+      </c>
+      <c r="E1495" s="6" t="s">
+        <v>4794</v>
+      </c>
+      <c r="F1495" s="6">
+        <v>4900</v>
+      </c>
+      <c r="G1495" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1495" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Tebs Sparkling Lemon Lime 300Ml',4900,'-','https://assets.klikindomaret.com/products/20119547/20119547_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1496" s="6" t="s">
+        <v>4795</v>
+      </c>
+      <c r="B1496" s="6" t="s">
+        <v>4796</v>
+      </c>
+      <c r="E1496" s="6" t="s">
+        <v>4797</v>
+      </c>
+      <c r="F1496" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G1496" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1496" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Health Drink Vitamin Apple 140Ml',7500,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20032519/20032519_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1497" s="6" t="s">
+        <v>4798</v>
+      </c>
+      <c r="B1497" s="6" t="s">
+        <v>4799</v>
+      </c>
+      <c r="E1497" s="6" t="s">
+        <v>4800</v>
+      </c>
+      <c r="F1497" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G1497" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1497" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Health Drink Vitamin Lemon 140Ml',7500,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/10039897/10039897_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1498" s="6" t="s">
+        <v>4801</v>
+      </c>
+      <c r="B1498" s="6" t="s">
+        <v>4802</v>
+      </c>
+      <c r="E1498" s="6" t="s">
+        <v>4803</v>
+      </c>
+      <c r="F1498" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G1498" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1498" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Health Drink Vitamin Mango 140Ml',7500,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20115636/20115636_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1499" s="6" t="s">
+        <v>4804</v>
+      </c>
+      <c r="B1499" s="6" t="s">
+        <v>4805</v>
+      </c>
+      <c r="E1499" s="6" t="s">
+        <v>4806</v>
+      </c>
+      <c r="F1499" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G1499" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1499" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Health Drink Vitamin Orange 140Ml',7500,'-','https://assets.klikindomaret.com/promos/20230607_07_00_20230613_23_00/20009737/20009737_thumb.jpg','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1500" s="6" t="s">
+        <v>4807</v>
+      </c>
+      <c r="B1500" s="6" t="s">
+        <v>4808</v>
+      </c>
+      <c r="E1500" s="6" t="s">
+        <v>4809</v>
+      </c>
+      <c r="F1500" s="6">
+        <v>8300</v>
+      </c>
+      <c r="G1500" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1500" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Isotonic Drink Lemon Water 500Ml',8300,'-','https://assets.klikindomaret.com/products/20019673/20019673_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1501" s="6" t="s">
+        <v>4810</v>
+      </c>
+      <c r="B1501" s="6" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E1501" s="6" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F1501" s="6">
+        <v>8300</v>
+      </c>
+      <c r="G1501" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1501" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'You C1000 Isotonic Drink Orange Water 500Ml',8300,'-','https://assets.klikindomaret.com/products/20019674/20019674_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1502" s="6" t="s">
+        <v>4813</v>
+      </c>
+      <c r="B1502" s="6" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E1502" s="6" t="s">
+        <v>4815</v>
+      </c>
+      <c r="F1502" s="6">
+        <v>17200</v>
+      </c>
+      <c r="G1502" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1502" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Minuman Penyejuk 5X7g',17200,'-','https://assets.klikindomaret.com/products/20002504/20002504_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1503" s="6" t="s">
+        <v>4816</v>
+      </c>
+      <c r="B1503" s="6" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E1503" s="6" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F1503" s="6">
+        <v>19000</v>
+      </c>
+      <c r="G1503" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1503" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Adem Sari Minuman Penyejuk 8'S',19000,'-','https://assets.klikindomaret.com/products/20129669/20129669_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1504" s="6" t="s">
+        <v>4819</v>
+      </c>
+      <c r="B1504" s="6" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E1504" s="6" t="s">
+        <v>4821</v>
+      </c>
+      <c r="F1504" s="6">
+        <v>3000</v>
+      </c>
+      <c r="G1504" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1504" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Bonteh Minuman Teh Manis 330mL',3000,'-','https://assets.klikindomaret.com/products/20129849/20129849_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1505" s="6" t="s">
+        <v>4822</v>
+      </c>
+      <c r="B1505" s="6" t="s">
+        <v>4823</v>
+      </c>
+      <c r="E1505" s="6" t="s">
+        <v>4824</v>
+      </c>
+      <c r="F1505" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G1505" s="6" t="s">
+        <v>4604</v>
+      </c>
+      <c r="K1505" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Coca-Cola Soft Drink 250Ml Pet',3500,'-','https://assets.klikindomaret.com/products/20037042/20037042_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1506" s="6" t="s">
+        <v>4825</v>
+      </c>
+      <c r="B1506" s="6" t="s">
+        <v>4826</v>
+      </c>
+      <c r="E1506" s="6" t="s">
+        <v>4827</v>
+      </c>
+      <c r="F1506" s="6">
+        <v>12900</v>
+      </c>
+      <c r="G1506" s="6"/>
+      <c r="K1506" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Coconut Island Coconut Lychee Peach 240mL',12900,'-','https://assets.klikindomaret.com/products/20120740/20120740_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1507" s="6" t="s">
+        <v>4828</v>
+      </c>
+      <c r="B1507" s="6" t="s">
+        <v>4829</v>
+      </c>
+      <c r="E1507" s="6" t="s">
+        <v>4830</v>
+      </c>
+      <c r="F1507" s="6">
+        <v>12900</v>
+      </c>
+      <c r="G1507" s="6"/>
+      <c r="K1507" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Coconut Island Yuzu Passion Fruit Lavender 240mL',12900,'-','https://assets.klikindomaret.com/products/20120742/20120742_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1508" s="6" t="s">
+        <v>4831</v>
+      </c>
+      <c r="B1508" s="6" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E1508" s="6" t="s">
+        <v>4833</v>
+      </c>
+      <c r="F1508" s="6">
+        <v>10200</v>
+      </c>
+      <c r="G1508" s="6"/>
+      <c r="K1508" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Delmonte Boba Milk Tea Taro 240mL',10200,'-','https://assets.klikindomaret.com/products/20104971/20104971_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1509" s="6" t="s">
+        <v>4834</v>
+      </c>
+      <c r="B1509" s="6" t="s">
+        <v>4835</v>
+      </c>
+      <c r="E1509" s="6" t="s">
+        <v>4836</v>
+      </c>
+      <c r="F1509" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G1509" s="6"/>
+      <c r="K1509" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Fanta Soft Drink Strawberry 250Ml',3500,'-','https://assets.klikindomaret.com/products/20037043/20037043_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1510" s="6" t="s">
+        <v>4837</v>
+      </c>
+      <c r="B1510" s="6" t="s">
+        <v>4838</v>
+      </c>
+      <c r="E1510" s="6" t="s">
+        <v>4839</v>
+      </c>
+      <c r="F1510" s="6">
+        <v>2900</v>
+      </c>
+      <c r="G1510" s="6"/>
+      <c r="K1510" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Isoplus Minuman Isotonik Coco 350mL',2900,'-','https://assets.klikindomaret.com/products/20128918/20128918_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1511" s="6" t="s">
+        <v>4840</v>
+      </c>
+      <c r="B1511" s="6" t="s">
+        <v>4841</v>
+      </c>
+      <c r="E1511" s="6" t="s">
+        <v>4842</v>
+      </c>
+      <c r="F1511" s="6">
+        <v>7200</v>
+      </c>
+      <c r="G1511" s="6"/>
+      <c r="K1511" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Kiranti Jamu Pegal Linu 120mL',7200,'-','https://assets.klikindomaret.com/products/10012355/10012355_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1512" s="6" t="s">
+        <v>4843</v>
+      </c>
+      <c r="B1512" s="6" t="s">
+        <v>4844</v>
+      </c>
+      <c r="E1512" s="6" t="s">
+        <v>4845</v>
+      </c>
+      <c r="F1512" s="6">
+        <v>16900</v>
+      </c>
+      <c r="G1512" s="6"/>
+      <c r="K1512" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Lotte Minuman Bersoda Milkis 500mL',16900,'-','https://assets.klikindomaret.com/products/20048624/20048624_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1513" s="6" t="s">
+        <v>4846</v>
+      </c>
+      <c r="B1513" s="6" t="s">
+        <v>4847</v>
+      </c>
+      <c r="E1513" s="6" t="s">
+        <v>4848</v>
+      </c>
+      <c r="F1513" s="6">
+        <v>7500</v>
+      </c>
+      <c r="G1513" s="6"/>
+      <c r="K1513" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Madu Nusantara Honeymon Drink 330mL',7500,'-','https://assets.klikindomaret.com/products/20123330/20123330_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1514" s="6" t="s">
+        <v>4849</v>
+      </c>
+      <c r="B1514" s="6" t="s">
+        <v>4850</v>
+      </c>
+      <c r="E1514" s="6" t="s">
+        <v>4851</v>
+      </c>
+      <c r="F1514" s="6">
+        <v>10900</v>
+      </c>
+      <c r="G1514" s="6"/>
+      <c r="K1514" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Mogu-Mogu Jelly With Nata De Coco Lychee 150mL',10900,'-','https://assets.klikindomaret.com/products/20128812/20128812_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1515" s="6" t="s">
+        <v>4852</v>
+      </c>
+      <c r="B1515" s="6" t="s">
+        <v>4853</v>
+      </c>
+      <c r="E1515" s="6" t="s">
+        <v>4854</v>
+      </c>
+      <c r="F1515" s="6">
+        <v>10900</v>
+      </c>
+      <c r="G1515" s="6"/>
+      <c r="K1515" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Mogu-Mogu Jelly With Nata De Coco Strawberry 150mL',10900,'-','https://assets.klikindomaret.com/products/20128811/20128811_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1516" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1516" s="6" t="s">
+        <v>4855</v>
+      </c>
+      <c r="B1516" s="6" t="s">
+        <v>4856</v>
+      </c>
+      <c r="E1516" s="6" t="s">
+        <v>4857</v>
+      </c>
+      <c r="F1516" s="6">
+        <v>11000</v>
+      </c>
+      <c r="G1516" s="6"/>
+      <c r="K1516" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Mogu-Mogu Minuman Nata De Coco Nanas 320mL',11000,'-','https://assets.klikindomaret.com/products/20129120/20129120_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1517" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1517" s="6" t="s">
+        <v>4858</v>
+      </c>
+      <c r="B1517" s="6" t="s">
+        <v>4859</v>
+      </c>
+      <c r="E1517" s="6" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F1517" s="6">
+        <v>6400</v>
+      </c>
+      <c r="G1517" s="6"/>
+      <c r="K1517" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Panda Minuman Sarang Burung 310mL',6400,'-','https://assets.klikindomaret.com/products/20088273/20088273_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1518" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1518" s="6" t="s">
+        <v>4861</v>
+      </c>
+      <c r="B1518" s="6" t="s">
+        <v>4862</v>
+      </c>
+      <c r="E1518" s="6" t="s">
+        <v>4863</v>
+      </c>
+      <c r="F1518" s="6">
+        <v>6700</v>
+      </c>
+      <c r="G1518" s="6"/>
+      <c r="K1518" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Pocari Sweat Minuman Isotonik 350Ml',6700,'-','https://assets.klikindomaret.com/products/20015838/20015838_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1519" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1519" s="6" t="s">
+        <v>4864</v>
+      </c>
+      <c r="B1519" s="6" t="s">
+        <v>4865</v>
+      </c>
+      <c r="E1519" s="6" t="s">
+        <v>4866</v>
+      </c>
+      <c r="F1519" s="6">
+        <v>9600</v>
+      </c>
+      <c r="G1519" s="6"/>
+      <c r="K1519" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Pokka Drink Green Tea No Sugar 450mL',9600,'-','https://assets.klikindomaret.com/products/20120415/20120415_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1520" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1520" s="6" t="s">
+        <v>4867</v>
+      </c>
+      <c r="B1520" s="6" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E1520" s="6" t="s">
+        <v>4869</v>
+      </c>
+      <c r="F1520" s="6">
+        <v>9700</v>
+      </c>
+      <c r="G1520" s="6"/>
+      <c r="K1520" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Ribena Fruit Drink Blackcurrant 450mL',9700,'-','https://assets.klikindomaret.com/products/20129721/20129721_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1521" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1521" s="6" t="s">
+        <v>4870</v>
+      </c>
+      <c r="B1521" s="6" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E1521" s="6" t="s">
+        <v>4872</v>
+      </c>
+      <c r="F1521" s="6">
+        <v>8000</v>
+      </c>
+      <c r="G1521" s="6"/>
+      <c r="K1521" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sido Muncul Jamu Beras Kencur 150mL',8000,'-','https://assets.klikindomaret.com/products/20124207/20124207_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1522" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1522" s="6" t="s">
+        <v>4873</v>
+      </c>
+      <c r="B1522" s="6" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E1522" s="6" t="s">
+        <v>4875</v>
+      </c>
+      <c r="F1522" s="6">
+        <v>3500</v>
+      </c>
+      <c r="G1522" s="6"/>
+      <c r="K1522" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Sprite Soft Drink 250Ml',3500,'-','https://assets.klikindomaret.com/products/20037044/20037044_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1523" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1523" s="6" t="s">
+        <v>4876</v>
+      </c>
+      <c r="B1523" s="6" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E1523" s="6" t="s">
+        <v>4878</v>
+      </c>
+      <c r="F1523" s="6">
+        <v>15000</v>
+      </c>
+      <c r="G1523" s="6"/>
+      <c r="K1523" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Wang Lao Ji Herbal Drink Chrysanthemum 310mL',15000,'-','https://assets.klikindomaret.com/products/20118379/20118379_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
+    <row r="1524" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1524" s="6" t="s">
+        <v>4879</v>
+      </c>
+      <c r="B1524" s="6" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E1524" s="6" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F1524" s="6">
+        <v>5000</v>
+      </c>
+      <c r="G1524" s="6"/>
+      <c r="K1524" t="str">
+        <f t="shared" si="23"/>
+        <v>exec [S_Product_insertProduct] 'Zoda Air Soda 250mL',5000,'-','https://assets.klikindomaret.com/products/20037976/20037976_thumb.jpg?Version.20.01.1.01','C001', 'MM002'</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:K1391" xr:uid="{04983E94-4F41-4EE4-A125-D75CC8F12EB5}"/>
+  <autoFilter ref="A1:K1392" xr:uid="{04983E94-4F41-4EE4-A125-D75CC8F12EB5}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45903,7 +49824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E70726D2-7102-42A8-B672-5C00F760B071}">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="B34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
